--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Job Desk</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Not yet</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Raffly &amp; Bonnie</t>
   </si>
 </sst>
 </file>
@@ -121,10 +127,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -237,7 +243,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -431,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,25 +448,25 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -486,81 +492,115 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>44470</v>
+      <c r="B3" s="4">
+        <v>44495</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44503</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44504</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
-        <v>44471</v>
+      <c r="B4" s="4">
+        <v>44497</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44504</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44504</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
-        <v>44472</v>
+      <c r="B5" s="4">
+        <v>44504</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44504</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44505</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>44473</v>
+      <c r="B6" s="4">
+        <v>44505</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44505</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44505</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
-        <v>44474</v>
+      <c r="B7" s="4">
+        <v>44505</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44506</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44506</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
-        <v>44475</v>
-      </c>
+      <c r="B8" s="4">
+        <v>44506</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44507</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -570,11 +610,15 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
-        <v>44476</v>
-      </c>
+      <c r="B9" s="4">
+        <v>44507</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44508</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
